--- a/backend/outputs/top3_by_user.xlsx
+++ b/backend/outputs/top3_by_user.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>dummy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.737</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>dummy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.314</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -488,17 +488,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vehicle</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.242</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dummy</t>
+          <t>user2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,67 +507,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.586</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dummy</t>
+          <t>user2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.295</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>dummy</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>landscape</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>user2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>animal</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.606</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>user2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.191</v>
+        <v>0.234</v>
       </c>
     </row>
   </sheetData>
